--- a/src/test/java/examplePackage/sampleBook.xlsx
+++ b/src/test/java/examplePackage/sampleBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\088619744\Documents\088619\my_Auto_Lab\exampleTest\src\test\java\examplePackage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D845F4-8EA3-482A-B12C-D090FAC12358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B02CE2-ACD4-40C5-8991-F58D390E346A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7188" yWindow="120" windowWidth="15852" windowHeight="12240" xr2:uid="{1B3FA747-9C03-4AA8-B5C8-9D7E0FECC69D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B3FA747-9C03-4AA8-B5C8-9D7E0FECC69D}"/>
   </bookViews>
   <sheets>
     <sheet name="sampleSheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>google alerts</t>
+    <t>google maps</t>
   </si>
 </sst>
 </file>
